--- a/excel/rezultati.xlsx
+++ b/excel/rezultati.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katja/Versioned/Predmeti/racunalniski-praktikum/vaje/03-excel/vaje2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tv48789\RP\racunalniski-praktikum\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CFF31F-8871-2C47-ABE9-A8148D29A681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D047BFD5-D0FB-4DC5-BC82-811F09AB6F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25160" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rezultati" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="15" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,16 +27,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>Priimek</t>
   </si>
@@ -227,22 +231,28 @@
     <t>Tomaž</t>
   </si>
   <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maksimum</t>
+  </si>
+  <si>
+    <t>Povprečje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,6 +588,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -695,7 +711,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -738,11 +754,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -770,6 +794,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -786,7 +811,178 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -799,30 +995,3475 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[rezultati.xlsx]Rezultati!PivotTable7</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Velikost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> skupin</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SI"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SI"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SI"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SI"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rezultati'!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Udeležba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="47"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2DF7-4C5F-9335-70C83E608F76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="33"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2DF7-4C5F-9335-70C83E608F76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-2DF7-4C5F-9335-70C83E608F76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rezultati'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rezultati'!$I$8:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DF7-4C5F-9335-70C83E608F76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rezultati'!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rezultati'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rezultati'!$J$8:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>58.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.714285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DF7-4C5F-9335-70C83E608F76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rezultati'!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maksimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rezultati'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rezultati'!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2DF7-4C5F-9335-70C83E608F76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rezultati'!$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rezultati'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rezultati'!$L$8:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2DF7-4C5F-9335-70C83E608F76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Število</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> točk</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rezultati'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rezultati'!$H$3:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rezultati'!$J$3:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>58.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.714285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EDB-4651-9D7F-D72A278AFCA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rezultati'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rezultati'!$H$3:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rezultati'!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>66.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EDB-4651-9D7F-D72A278AFCA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="79484016"/>
+        <c:axId val="79483600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79484016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Skupina</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79483600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79483600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Povprečje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79484016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C171A87-E196-48AA-88EE-B0A7EA357773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E629CCAB-3A19-46C1-B3CB-205B4CEDCADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vidmar, Tija" refreshedDate="45999.752648263886" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="28" xr:uid="{F5F65F9F-AF11-4324-9033-997790E76629}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Rezultati"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Priimek" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Ime" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Skupina" numFmtId="0">
+      <sharedItems count="3">
+        <s v="B"/>
+        <s v="A"/>
+        <s v="C"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Točke" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="26" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Opravil" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+  <r>
+    <s v="Bezek"/>
+    <s v="Tomaž"/>
+    <x v="0"/>
+    <n v="38"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Cvelbar"/>
+    <s v="Janja"/>
+    <x v="0"/>
+    <n v="39"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Furlan"/>
+    <s v="Aleš"/>
+    <x v="0"/>
+    <n v="36"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Furlan"/>
+    <s v="Luka"/>
+    <x v="1"/>
+    <n v="93"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Iskra"/>
+    <s v="Sabina"/>
+    <x v="1"/>
+    <n v="77"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Jerman"/>
+    <s v="Katja"/>
+    <x v="0"/>
+    <n v="100"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Karakaš"/>
+    <s v="Alenka"/>
+    <x v="1"/>
+    <n v="94"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Karničar"/>
+    <s v="Jaka"/>
+    <x v="2"/>
+    <n v="26"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Kočar"/>
+    <s v="Petra"/>
+    <x v="0"/>
+    <n v="44"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Kofol"/>
+    <s v="Andraž"/>
+    <x v="2"/>
+    <n v="34"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Korošec"/>
+    <s v="Kristina"/>
+    <x v="0"/>
+    <n v="86"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Kržišnik"/>
+    <s v="Grega"/>
+    <x v="0"/>
+    <n v="90"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Kumar"/>
+    <s v="Barbara"/>
+    <x v="0"/>
+    <n v="67"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Logar"/>
+    <s v="Mateja"/>
+    <x v="1"/>
+    <n v="42"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Obrenović"/>
+    <s v="Tatjana"/>
+    <x v="2"/>
+    <n v="44"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Pance"/>
+    <s v="Martin"/>
+    <x v="0"/>
+    <n v="64"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Pleterski"/>
+    <s v="Vesna"/>
+    <x v="2"/>
+    <n v="30"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Puncer"/>
+    <s v="Primož"/>
+    <x v="1"/>
+    <n v="57"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Ribnikar"/>
+    <s v="Matjaž"/>
+    <x v="1"/>
+    <n v="43"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Smrekar"/>
+    <s v="Andreja"/>
+    <x v="1"/>
+    <n v="38"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Štemberger"/>
+    <s v="Igor"/>
+    <x v="0"/>
+    <n v="85"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Šubašič"/>
+    <s v="Matej"/>
+    <x v="2"/>
+    <n v="76"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Tekavčič"/>
+    <s v="Aleksander"/>
+    <x v="1"/>
+    <n v="34"/>
+    <s v="ne"/>
+  </r>
+  <r>
+    <s v="Tratnik"/>
+    <s v="Mojca"/>
+    <x v="0"/>
+    <n v="79"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Trček"/>
+    <s v="Valerija"/>
+    <x v="0"/>
+    <n v="70"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Vesel"/>
+    <s v="Polona"/>
+    <x v="2"/>
+    <n v="66"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Virant"/>
+    <s v="Primož"/>
+    <x v="2"/>
+    <n v="58"/>
+    <s v="da"/>
+  </r>
+  <r>
+    <s v="Žveglič"/>
+    <s v="Katarina"/>
+    <x v="1"/>
+    <n v="46"/>
+    <s v="ne"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FAB500C-ABBF-46B6-A4B2-024AC103F467}" name="PivotTable7" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Skupina">
+  <location ref="H7:L10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Udeležba" fld="2" subtotal="count" baseField="2" baseItem="0"/>
+    <dataField name="Povprečje" fld="3" subtotal="average" baseField="2" baseItem="0"/>
+    <dataField name="Maksimum" fld="3" subtotal="max" baseField="2" baseItem="0"/>
+    <dataField name="Minimum" fld="3" subtotal="min" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="33">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="18">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07C90745-5D9B-DB4B-840E-195183B97A51}" name="Rezultati" displayName="Rezultati" ref="B2:F30" totalsRowShown="0">
   <autoFilter ref="B2:F30" xr:uid="{07C90745-5D9B-DB4B-840E-195183B97A51}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F30">
-    <sortCondition ref="C2:C30"/>
+    <sortCondition ref="B2:B30"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{61A7CB75-EE0E-8148-A622-B1E11A2949AB}" name="Priimek"/>
     <tableColumn id="2" xr3:uid="{1516B636-A66A-2F4C-90DA-D664D3A1EBF9}" name="Ime"/>
     <tableColumn id="3" xr3:uid="{4228D6B7-8EB4-0245-B28A-8C1E7596D7AA}" name="Skupina"/>
     <tableColumn id="4" xr3:uid="{D7BCD06B-AAB1-E14C-9780-EB9AFE9CDDAF}" name="Točke"/>
-    <tableColumn id="5" xr3:uid="{A572DA5B-37ED-FF49-A08A-839E55F45206}" name="Opravil"/>
+    <tableColumn id="5" xr3:uid="{A572DA5B-37ED-FF49-A08A-839E55F45206}" name="Opravil" dataDxfId="35">
+      <calculatedColumnFormula>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}" name="Skupine" displayName="Skupine" ref="I2:L5" totalsRowShown="0">
-  <autoFilter ref="I2:L5" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}" name="Skupine" displayName="Skupine" ref="H2:K5" totalsRowShown="0">
+  <autoFilter ref="H2:K5" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{26F1C940-A3E1-AA4A-B91A-EA859D7A62AD}" name="Test"/>
-    <tableColumn id="2" xr3:uid="{EA7356A2-0D38-5D42-A1AC-E30DC5D5C796}" name="Udeležba"/>
-    <tableColumn id="3" xr3:uid="{49F9352C-9597-4E44-8122-AF1CE6CE856F}" name="2022"/>
+    <tableColumn id="2" xr3:uid="{EA7356A2-0D38-5D42-A1AC-E30DC5D5C796}" name="Udeležba" dataDxfId="34">
+      <calculatedColumnFormula>COUNTIF(Rezultati[Skupina], D22)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{49F9352C-9597-4E44-8122-AF1CE6CE856F}" name="2022" dataCellStyle="Comma">
+      <calculatedColumnFormula>AVERAGEIF(Rezultati[Skupina], Skupine[[#This Row],[Test]], Rezultati[Točke])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{B0EFA30B-7FCE-C547-8EC0-FF89353D2666}" name="2021"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -830,9 +4471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -870,9 +4511,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -905,9 +4546,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,9 +4598,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1119,25 +4794,26 @@
   <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1153,66 +4829,84 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>38</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="I3">
+        <f>COUNTIF(Rezultati[Skupina], D22)</f>
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <f>AVERAGEIF(Rezultati[Skupina], Skupine[[#This Row],[Test]], Rezultati[Točke])</f>
+        <v>58.222222222222221</v>
+      </c>
+      <c r="K3">
+        <v>66.84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>66.84</v>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(Rezultati[Skupina], D23)</f>
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <f>AVERAGEIF(Rezultati[Skupina], Skupine[[#This Row],[Test]], Rezultati[Točke])</f>
+        <v>66.5</v>
+      </c>
+      <c r="K4">
+        <v>52.35</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4">
-        <v>52.35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1225,446 +4919,547 @@
       <c r="E5">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="F5" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="L5">
+      <c r="I5">
+        <f>COUNTIF(Rezultati[Skupina], D24)</f>
+        <v>7</v>
+      </c>
+      <c r="J5" s="2">
+        <f>AVERAGEIF(Rezultati[Skupina], Skupine[[#This Row],[Test]], Rezultati[Točke])</f>
+        <v>47.714285714285715</v>
+      </c>
+      <c r="K5">
         <v>49.66</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4">
+        <v>58.222222222222221</v>
+      </c>
+      <c r="K8" s="1">
+        <v>94</v>
+      </c>
+      <c r="L8" s="1">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <v>12</v>
+      </c>
+      <c r="J9" s="4">
+        <v>66.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+      <c r="L9" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" s="4">
+        <v>47.714285714285715</v>
+      </c>
+      <c r="K10" s="1">
+        <v>76</v>
+      </c>
+      <c r="L10" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>85</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15">
-        <v>86</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>64</v>
       </c>
-      <c r="F17" t="s">
-        <v>65</v>
+      <c r="F18" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
-        <v>64</v>
+      <c r="F21" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>85</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>79</v>
       </c>
-      <c r="F21" t="s">
-        <v>65</v>
+      <c r="F26" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E22">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E23">
+      <c r="E28">
         <v>66</v>
       </c>
-      <c r="F23" t="s">
-        <v>65</v>
+      <c r="F28" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
         <v>29</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>da</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
-        <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>77</v>
-      </c>
-      <c r="F26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>38</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
       <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>IF(Rezultati[[#This Row],[Točke]]&gt;=50, "da", "ne")</f>
+        <v>ne</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:E30 B3:C30">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$E3&lt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>